--- a/Assets/Cards/Player Cards/Minister of Defence.xlsx
+++ b/Assets/Cards/Player Cards/Minister of Defence.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keremataman\GitHub\kardashev-scale\Assets\Cards\Player Cards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B7CB9-C9AE-465E-826E-03A640EA68FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52F529-FAAC-41B5-A545-A8660CADEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="0" windowWidth="27480" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +111,76 @@
   </si>
   <si>
     <t>Gain 1 Army for each Tile you own</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mobilize Troops</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Pay X Credits to move X Troops to any tile they are allowed to move to</t>
+  </si>
+  <si>
+    <t>Pay X Credits to place X Troops to any tile within your Nation</t>
+  </si>
+  <si>
+    <t>Recruitment Drive</t>
+  </si>
+  <si>
+    <t>Do an Intellegence Check against a Foreign Nation. If successful, increase intellegence against that Nation by 1. Otherwise, declare relations with that Nation by 1.</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Covert Ops</t>
+  </si>
+  <si>
+    <t>Coup</t>
+  </si>
+  <si>
+    <t>Spread Influence</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation, then do an intellegence check against that them. If successful, MoD can negate a card that Foreign Nation plays on their next turn. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation, then do an intellegence check against them. If successful, MoD looks at the top 3 card of each of that Foreign Nation's deck. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
+  </si>
+  <si>
+    <t>Select a tile, then do an intellegence check against the owner of the tile. If successful, remove number of troops belonging to the owner equal to the amount by which the intellegence check succeeded. If unsuccessful, decrease relations with all Foreign Nations that own/at least have one influence on that tile by 1</t>
+  </si>
+  <si>
+    <t>Select a Neutral Country you have the most influence on (no ties allowed). Do an intellegence check against that Neutral Country. 
+If successful, add that Neutral Country to your Nation. Decrease relations with any Foreign Nation that had influence on that Nuetral Country by 1.
+If unsuccessful, decrease relations with all Foreign Nations that have influence in that neutral coutry by 1</t>
+  </si>
+  <si>
+    <t>Select a tile, then do an Intellegence Check against the owner of that tile. 
+If successful, increase influence in that tile by 1. 
+If unsuccessful, decrease relations with all Foreign Nations that have influence in that tile by 1</t>
+  </si>
+  <si>
+    <t>Terrorism</t>
+  </si>
+  <si>
+    <t>TODO: steal science</t>
+  </si>
+  <si>
+    <t>TODO: steal credits</t>
+  </si>
+  <si>
+    <t>Steal Tech</t>
+  </si>
+  <si>
+    <t>Steal Credits</t>
+  </si>
+  <si>
+    <t>Spy</t>
   </si>
 </sst>
 </file>
@@ -475,7 +546,174 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D11" sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D048DD93-0936-4EE1-8045-289824FE8CBF}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Cards/Player Cards/Minister of Defence.xlsx
+++ b/Assets/Cards/Player Cards/Minister of Defence.xlsx
@@ -1,198 +1,200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keremataman\GitHub\kardashev-scale\Assets\Cards\Player Cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C52F529-FAAC-41B5-A545-A8660CADEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="27480" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Pay X Credits to move X Troops to any tile they are allowed to move to</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Mobilize Troops</t>
+  </si>
+  <si>
+    <t>Pay X Credits to place X Troops to any tile within your Nation</t>
+  </si>
+  <si>
+    <t>Recruitment Drive</t>
+  </si>
+  <si>
+    <t>Do an Intellegence Check against a Foreign Nation. If successful, increase intellegence against that Nation by 1. Otherwise, decrease relations with that Nation by 1.</t>
+  </si>
+  <si>
+    <t>Covert Ops</t>
+  </si>
+  <si>
+    <t>Select a Neutral Country you have the most influence on (no ties allowed). Do an intellegence check against that Neutral Country.
+If successful, add that Neutral Country to your Nation. Decrease relations with any Foreign Nation that had influence on that Nuetral Country by 1.
+If unsuccessful, decrease relations with all Foreign Nations that have influence in that neutral coutry by 1</t>
+  </si>
+  <si>
+    <t>Coup</t>
+  </si>
+  <si>
+    <t>Select a tile, then do an Intellegence Check on it.
+If successful, increase your influence in that tile by 1 and reduce the influence of every other Nation that had influence on that tile by 1.
+If unsuccessful, decrease relations with all Foreign Nations that have influence in that tile by 1</t>
+  </si>
+  <si>
+    <t>Spread Influence</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation, then do an intellegence check against that them. If successful, MoD can negate a card that Foreign Nation plays on their next turn. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
+  </si>
+  <si>
+    <t>Sabotage</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation, then do an intellegence check against them. If successful, MoD looks at the top 3 card of each of that Foreign Nation's deck. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
+  </si>
+  <si>
+    <t>Spy</t>
+  </si>
+  <si>
+    <t>TODO: steal science</t>
+  </si>
+  <si>
+    <t>Steal Tech</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation, then do an intellegence check against that them. If successful, MoD can steal upto 2X Credits where X is the number by which the Intellegence Check was succeeded by. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
+  </si>
+  <si>
+    <t>Steal Credits</t>
+  </si>
+  <si>
+    <t>Select a tile, then do an intellegence check against the owner of the tile. If successful, remove number of troops belonging to the owner equal to the amount by which the intellegence check succeeded. If unsuccessful, decrease relations with all Foreign Nations that own/at least have one influence on that tile by 1</t>
+  </si>
+  <si>
+    <t>Terrorism</t>
+  </si>
+  <si>
+    <t>Build X nukes</t>
+  </si>
+  <si>
+    <t>3X</t>
+  </si>
+  <si>
+    <t>Build Nukes</t>
+  </si>
+  <si>
+    <t>Select a Foreign Nation, then do an intellegence check against that them. If successful, MoD can look at the top card of that Foreign Nation's deck and can then choose to activate it's effect for their own Nation. Put that card to the top of the Foreign Nation's deck afterwards. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
+  </si>
+  <si>
+    <t>Plagirism</t>
+  </si>
+  <si>
+    <t>You can only play this card if you are the only Nation that can use Nukes. Select any number of tiles up to the number of nukes you own. You can spend a nuke to drop a nuclear bomb to the selected territories. Remove all tokens and flip the territory face-down to indicate it cannot be inhabited until the nuclear fallout is cleaned. 
+All Nations will declare war on you. Any Nation that can acquire Nukes and can use them will use it on a tile you own that has the highest military power</t>
+  </si>
+  <si>
+    <t>The Beginning of the End</t>
+  </si>
+  <si>
+    <t>Gold Cost</t>
+  </si>
+  <si>
     <t>Subtype</t>
   </si>
   <si>
-    <t>Text</t>
+    <t>2X</t>
   </si>
   <si>
     <t>Nuke</t>
-  </si>
-  <si>
-    <t>Build Nukes</t>
-  </si>
-  <si>
-    <t>Gold Cost</t>
-  </si>
-  <si>
-    <t>Gather intellegence</t>
-  </si>
-  <si>
-    <t>Purge</t>
-  </si>
-  <si>
-    <t>Select a nation, then do an intellegence check against them. If you succeed, increase intellegence by 1. Otherwise, decrease relations with that nation by 1</t>
-  </si>
-  <si>
-    <t>Intellegence Action</t>
-  </si>
-  <si>
-    <t>Blackmail</t>
-  </si>
-  <si>
-    <t>Select a nation, then do an intellegence check against them. If you succeed, look at the top 3 cards of their deck, discard any of them, and put the rest back in any order. Otherwise, decrease relations by 1</t>
-  </si>
-  <si>
-    <t>Steal Research</t>
-  </si>
-  <si>
-    <t>Sabotage</t>
-  </si>
-  <si>
-    <t>Select a nation, then do an intellegence check against them. If successful, skip that nation's next action phase, and their soldiers get -1 strength. If unsuccessful, reduce diplomatic relations by 1</t>
-  </si>
-  <si>
-    <t>Select a nation whose KS is higher than yours, then do an intellegence check against them. If successful, the researcher can select a research from their hand  and research it, succeeding automatically. Otherwise, decrease relations by 1</t>
   </si>
   <si>
     <t xml:space="preserve">Senate votes on whether to activate this card or not. 
 If the vote passes, spend a nuke, then select a tile that is not in or adjacent to a Nation that has nuke(s). Remove all military units and workers inside the selected tile and the tiles adjacent to it. Nothing can be placed on those tiles for two turns. Decrease relations with all Nations by 1. If a Nation has a tile affected by </t>
   </si>
   <si>
-    <t>Build X nukes</t>
-  </si>
-  <si>
-    <t>2X</t>
+    <t>Aggression</t>
   </si>
   <si>
     <t>The Nuclear Option</t>
   </si>
   <si>
-    <t>Aggression</t>
+    <t>Select a nation, then do an intellegence check against them. If you succeed, increase intellegence by 1. Otherwise, decrease relations with that nation by 1</t>
+  </si>
+  <si>
+    <t>Intellegence Action</t>
+  </si>
+  <si>
+    <t>Gather intellegence</t>
   </si>
   <si>
     <t>Remove all gold you have. Move the intellegence of all nations that have intellegence on you to 0</t>
   </si>
   <si>
+    <t>Purge</t>
+  </si>
+  <si>
+    <t>Select a nation, then do an intellegence check against them. If you succeed, look at the top 3 cards of their deck, discard any of them, and put the rest back in any order. Otherwise, decrease relations by 1</t>
+  </si>
+  <si>
     <t>Intellegence Action - Aggression</t>
   </si>
   <si>
+    <t>Blackmail</t>
+  </si>
+  <si>
+    <t>Select a nation whose KS is higher than yours, then do an intellegence check against them. If successful, the researcher can select a research from their hand  and research it, succeeding automatically. Otherwise, decrease relations by 1</t>
+  </si>
+  <si>
+    <t>Steal Research</t>
+  </si>
+  <si>
+    <t>Select a nation, then do an intellegence check against them. If successful, skip that nation's next action phase, and their soldiers get -1 strength. If unsuccessful, reduce diplomatic relations by 1</t>
+  </si>
+  <si>
+    <t>Gain 1 Army for each Tile you own</t>
+  </si>
+  <si>
     <t>Conscription</t>
-  </si>
-  <si>
-    <t>Gain 1 Army for each Tile you own</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Mobilize Troops</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Pay X Credits to move X Troops to any tile they are allowed to move to</t>
-  </si>
-  <si>
-    <t>Pay X Credits to place X Troops to any tile within your Nation</t>
-  </si>
-  <si>
-    <t>Recruitment Drive</t>
-  </si>
-  <si>
-    <t>Do an Intellegence Check against a Foreign Nation. If successful, increase intellegence against that Nation by 1. Otherwise, declare relations with that Nation by 1.</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>Covert Ops</t>
-  </si>
-  <si>
-    <t>Coup</t>
-  </si>
-  <si>
-    <t>Spread Influence</t>
-  </si>
-  <si>
-    <t>Select a Foreign Nation, then do an intellegence check against that them. If successful, MoD can negate a card that Foreign Nation plays on their next turn. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
-  </si>
-  <si>
-    <t>Select a Foreign Nation, then do an intellegence check against them. If successful, MoD looks at the top 3 card of each of that Foreign Nation's deck. If unsuccessful, decrease relations with that Foreign Nation by 1</t>
-  </si>
-  <si>
-    <t>Select a tile, then do an intellegence check against the owner of the tile. If successful, remove number of troops belonging to the owner equal to the amount by which the intellegence check succeeded. If unsuccessful, decrease relations with all Foreign Nations that own/at least have one influence on that tile by 1</t>
-  </si>
-  <si>
-    <t>Select a Neutral Country you have the most influence on (no ties allowed). Do an intellegence check against that Neutral Country. 
-If successful, add that Neutral Country to your Nation. Decrease relations with any Foreign Nation that had influence on that Nuetral Country by 1.
-If unsuccessful, decrease relations with all Foreign Nations that have influence in that neutral coutry by 1</t>
-  </si>
-  <si>
-    <t>Select a tile, then do an Intellegence Check against the owner of that tile. 
-If successful, increase influence in that tile by 1. 
-If unsuccessful, decrease relations with all Foreign Nations that have influence in that tile by 1</t>
-  </si>
-  <si>
-    <t>Terrorism</t>
-  </si>
-  <si>
-    <t>TODO: steal science</t>
-  </si>
-  <si>
-    <t>TODO: steal credits</t>
-  </si>
-  <si>
-    <t>Steal Tech</t>
-  </si>
-  <si>
-    <t>Steal Credits</t>
-  </si>
-  <si>
-    <t>Spy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,11 +203,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +371,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -227,54 +566,340 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -323,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -358,7 +983,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -532,328 +1157,368 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:D11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="82.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.1363636363636" style="3" customWidth="1"/>
+    <col min="2" max="2" width="6.42727272727273" customWidth="1"/>
+    <col min="3" max="3" width="5.28181818181818" customWidth="1"/>
+    <col min="4" max="4" width="17.4272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="114" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="85.5" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="42.75" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="42.75" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="57" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="57" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" ht="99.75" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D048DD93-0936-4EE1-8045-289824FE8CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100.709090909091" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.1363636363636" customWidth="1"/>
+    <col min="4" max="4" width="27.2818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="57" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>9</v>
+      <c r="C4" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="10">
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="28.5" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="A9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Cards/Player Cards/Minister of Defence.xlsx
+++ b/Assets/Cards/Player Cards/Minister of Defence.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>Text</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Pay X Credits to move X Troops to any tile they are allowed to move to</t>
   </si>
   <si>
-    <t>Army</t>
+    <t>Basic Action</t>
   </si>
   <si>
     <t>Mobilize Troops</t>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Do an Intellegence Check against a Foreign Nation. If successful, increase intellegence against that Nation by 1. Otherwise, decrease relations with that Nation by 1.</t>
-  </si>
-  <si>
-    <t>Covert Ops</t>
   </si>
   <si>
     <t>Select a Neutral Country you have the most influence on (no ties allowed). Do an intellegence check against that Neutral Country.
@@ -55,6 +52,9 @@
 If unsuccessful, decrease relations with all Foreign Nations that have influence in that neutral coutry by 1</t>
   </si>
   <si>
+    <t>Covert Ops</t>
+  </si>
+  <si>
     <t>Coup</t>
   </si>
   <si>
@@ -90,7 +90,7 @@
     <t>Steal Credits</t>
   </si>
   <si>
-    <t>Select a tile, then do an intellegence check against the owner of the tile. If successful, remove number of troops belonging to the owner equal to the amount by which the intellegence check succeeded. If unsuccessful, decrease relations with all Foreign Nations that own/at least have one influence on that tile by 1</t>
+    <t>Select a tile, then do an intellegence check against the owner of the tile. If successful, remove number of troops belonging to the owner equal to the amount by which the intellegence check succeeded. If unsuccessful, decrease relations with all Foreign Nations by 1</t>
   </si>
   <si>
     <t>Terrorism</t>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>3X</t>
+  </si>
+  <si>
+    <t>Army</t>
   </si>
   <si>
     <t>Build Nukes</t>
@@ -184,12 +187,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,7 +213,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,6 +247,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -230,48 +315,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,15 +332,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,59 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,25 +369,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,145 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,32 +568,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +597,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -642,16 +627,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,151 +649,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1165,8 +1161,8 @@
   <sheetPr/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1227,18 +1223,18 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="114" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -1252,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1266,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1280,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1291,7 +1287,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1302,13 +1298,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="57" spans="1:4">
+    <row r="11" ht="42.75" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -1330,38 +1326,38 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="57" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="99.75" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1392,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>3</v>
@@ -1406,94 +1402,94 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" ht="28.5" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28.5" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="28.5" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28.5" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -1501,10 +1497,10 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:4">
       <c r="A9" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:1">
